--- a/Banco Central/12/1/1/Anual 1955 a 2020 - Anual.xlsx
+++ b/Banco Central/12/1/1/Anual 1955 a 2020 - Anual.xlsx
@@ -3054,7 +3054,7 @@
         <v>82</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C65">
         <v>1.3</v>
@@ -3113,7 +3113,7 @@
         <v>83</v>
       </c>
       <c r="B66">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="C66">
         <v>1.4</v>
@@ -3122,7 +3122,7 @@
         <v>-1.4</v>
       </c>
       <c r="E66">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -3172,7 +3172,7 @@
         <v>84</v>
       </c>
       <c r="B67">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="C67">
         <v>-9.800000000000001</v>
@@ -3181,7 +3181,7 @@
         <v>-1.1</v>
       </c>
       <c r="E67">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="F67">
         <v>-0.9</v>
